--- a/special_sections/next_generation_concrete_surfacing/excel_files/ngcs_info.xlsx
+++ b/special_sections/next_generation_concrete_surfacing/excel_files/ngcs_info.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_438140EAF613C8364A33301B1636CCDC75525643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/samuel_alalade_ttu_edu/Documents/Research/PhD/0-7147/Tasks/Task 9/Shared FIles/rpdb/sections_info/special_sections/next_generation_concrete_surfacing/excel_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_438140EAF613C8364A33301B1636CCDC75525643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CADB0B49-418B-4439-9A20-F369938ACCE5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Section Data Type</t>
   </si>
@@ -113,13 +118,19 @@
   </si>
   <si>
     <t>29.811096, -95.436182</t>
+  </si>
+  <si>
+    <t>US290</t>
+  </si>
+  <si>
+    <t>IH610</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,11 +493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,23 +579,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
       <c r="I2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
